--- a/CaseAndFatalityDemographicsData/2021-05-14.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-05-14.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\5.06 to Send\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\5.13.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CEE793-4972-4E5A-A147-370456ABA878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FB335E-14C9-4FEA-A5F6-356C90AF0FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="3" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="4218" yWindow="684" windowWidth="17280" windowHeight="8994" tabRatio="806" firstSheet="1" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -574,11 +574,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.4828643076065756E-3</v>
+        <v>3.4993304530180147E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -586,11 +586,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1361</v>
+        <v>1369</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7237012082372907E-2</v>
+        <v>1.7294524874302029E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -598,11 +598,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3753</v>
+        <v>3765</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.753159907799083E-2</v>
+        <v>4.7563101644811645E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -610,11 +610,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15703</v>
+        <v>15728</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.19887788444489476</v>
+        <v>0.1986912251446474</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -622,11 +622,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17220</v>
+        <v>17254</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.2180906304617645</v>
+        <v>0.21796912504105712</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -634,11 +634,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15116</v>
+        <v>15141</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19144355226829454</v>
+        <v>0.19127567649511104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -646,11 +646,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12740</v>
+        <v>12773</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16135160465057372</v>
+        <v>0.16136082265848051</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -658,11 +658,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4606</v>
+        <v>4622</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8334810912130497E-2</v>
+        <v>5.8389550013896258E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -670,11 +670,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3109</v>
+        <v>3124</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9375364117632157E-2</v>
+        <v>3.9465373051365625E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -682,11 +682,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>1891</v>
+        <v>1898</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.3949441475214672E-2</v>
+        <v>2.397736173223174E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -694,11 +694,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1239</v>
+        <v>1249</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.5691886825907445E-2</v>
+        <v>1.5778569443391698E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -706,11 +706,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>1932</v>
+        <v>1945</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4468704881076015E-2</v>
+        <v>2.4571110942671618E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -722,7 +722,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.6464449454140176E-4</v>
+        <v>1.642285050152859E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -731,7 +731,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>78958</v>
+        <v>79158</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -748,7 +748,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
@@ -769,11 +769,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>26813</v>
+        <v>26915</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.33958560247220043</v>
+        <v>0.34001617019126307</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -781,11 +781,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>51246</v>
+        <v>51343</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.64902859748220576</v>
+        <v>0.64861416407690953</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -793,11 +793,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="6">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.138580004559386E-2</v>
+        <v>1.1369665731827485E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -806,7 +806,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>78958</v>
+        <v>79158</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -820,393 +820,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958BDC2E-149A-4610-AE3E-2ED1092370C8}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <v>956</v>
-      </c>
-      <c r="C2" s="9">
-        <f>B2/$B$8</f>
-        <v>1.2107702829352314E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6">
-        <v>12989</v>
-      </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.1645051799690975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6">
-        <v>28316</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>0.35862103903341019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6">
-        <v>557</v>
-      </c>
-      <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>7.0543833430431364E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6">
-        <v>27504</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" si="0"/>
-        <v>0.34833709060513185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>8636</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" si="0"/>
-        <v>0.10937460421996505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <f>SUM(B2:B7)</f>
-        <v>78958</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9">
-        <f>B2/$B$15</f>
-        <v>1.4133704847860764E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.4229208310618449E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
-        <v>33</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>6.663032285420074E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <v>246</v>
-      </c>
-      <c r="C5" s="9">
-        <f t="shared" si="0"/>
-        <v>4.9669877036767826E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>828</v>
-      </c>
-      <c r="C6" s="9">
-        <f t="shared" si="0"/>
-        <v>1.6718153734326731E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2433</v>
-      </c>
-      <c r="C7" s="9">
-        <f t="shared" si="0"/>
-        <v>4.9124719849778911E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5565</v>
-      </c>
-      <c r="C8" s="9">
-        <f t="shared" si="0"/>
-        <v>0.11236295354049307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4641</v>
-      </c>
-      <c r="C9" s="9">
-        <f t="shared" si="0"/>
-        <v>9.3706463141316851E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6009</v>
-      </c>
-      <c r="C10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.12132776061542189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6627</v>
-      </c>
-      <c r="C11" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1338058028953904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6">
-        <v>6560</v>
-      </c>
-      <c r="C12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.13245300543138086</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6">
-        <v>16566</v>
-      </c>
-      <c r="C13" s="9">
-        <f t="shared" si="0"/>
-        <v>0.3344842207280877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="7">
-        <f>SUM(B2:B14)</f>
-        <v>49527</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
-        <v>20774</v>
-      </c>
-      <c r="C2" s="9">
-        <f>B2/$B$5</f>
-        <v>0.41944797787065641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
-        <v>28752</v>
-      </c>
-      <c r="C3" s="9">
-        <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58053183112241813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>2.0191006925515375E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>49527</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1219,6 +832,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>956</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2/$B$8</f>
+        <v>1.207711159958564E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6">
+        <v>13002</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
+        <v>0.1642537709391344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>28340</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>0.35801814093332324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
+        <v>561</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0870916395057984E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <v>27646</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.34925086535789179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8653</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10931301953055914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <f>SUM(B2:B7)</f>
+        <v>79158</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2/$B$15</f>
+        <v>1.4046352964783786E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
+        <v>2.4079462225343634E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>6.6218521119694993E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>250</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0165546302799241E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>836</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6775358683656066E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2458</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.932276512491221E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5610</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11257148590348148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4698</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>9.427109461222033E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6045</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12130029096016856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6674</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13392194240995284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6583</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13209591652453095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>16629</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33368114778769942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7">
+        <f>SUM(B2:B14)</f>
+        <v>49835</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20909</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2/$B$5</f>
+        <v>0.4195645630580917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6">
+        <v>28925</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
+        <v>0.58041537072338723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>2.0066218521119694E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>49835</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1234,11 +1234,11 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$8</f>
-        <v>2.1119793244089084E-2</v>
+        <v>2.1230059195344639E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -1246,11 +1246,11 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>4986</v>
+        <v>5032</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.10067236053061966</v>
+        <v>0.1009732115982743</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1258,11 +1258,11 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>23020</v>
+        <v>23154</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>0.46479697942536397</v>
+        <v>0.46461322363800539</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.4515718698891517E-3</v>
+        <v>5.417879000702318E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -1282,11 +1282,11 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>20182</v>
+        <v>20298</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.40749490177075132</v>
+        <v>0.40730410354168756</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.6439315928685363E-4</v>
+        <v>4.6152302598575297E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>49527</v>
+        <v>49835</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="0"/>
